--- a/uploads/1/azure_components.xlsx
+++ b/uploads/1/azure_components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen.TN\Downloads\Experiments\sqrag\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen.TN\Downloads\Experiments\sqrag\QueryForge\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BEA53B-13BF-4C6D-B837-FCFB3159264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18280767-FB15-42F2-AC53-A4D9C7BA4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D1290A9-0135-4FAC-82AC-D39005C923F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D1290A9-0135-4FAC-82AC-D39005C923F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,10 +531,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
